--- a/JieLongMod_6/Excel/J剧情_巧活.xlsx
+++ b/JieLongMod_6/Excel/J剧情_巧活.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>剧情事件ID_StoryEvenID</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>RUN_SCRIPT_FUNC*Phone/Command#PhoneInit</t>
+  </si>
+  <si>
+    <t>巧活_发手机_延时</t>
+  </si>
+  <si>
+    <t>为避免开局时先于开局事件被触发，因此使用定时器延迟触发事件</t>
+  </si>
+  <si>
+    <t>SET_TIMER*巧活_发手机#0.01#1#巧活_发手机#1</t>
   </si>
   <si>
     <t>巧活_发手机</t>
@@ -82,7 +91,23 @@
     <t>手机_每时消息</t>
   </si>
   <si>
-    <t>RUN_SCRIPT_FUNC*Phone/Command#TriggerDailyChat</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RUN_SCRIPT_FUNC*Phone/Command#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TriggerHourChat</t>
+    </r>
   </si>
   <si>
     <t>个人事件手机加好友</t>
@@ -150,7 +175,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -160,6 +185,12 @@
     <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -194,7 +225,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,12 +375,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -670,76 +707,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,70 +782,73 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -827,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,7 +874,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -849,31 +889,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1270,170 +1316,182 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="152.254545454545" style="5" customWidth="1"/>
-    <col min="4" max="4" width="94.7545454545455" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="51.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="152.254545454545" style="6" customWidth="1"/>
+    <col min="4" max="4" width="94.7545454545455" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="105" spans="1:3">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="2" customFormat="1" ht="45" spans="1:4">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
-    <row r="5" ht="30" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" ht="105" spans="1:3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" ht="30" spans="1:3">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" ht="28" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:5">
+    <row r="9" ht="28" spans="1:4">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="3" customFormat="1" ht="15" spans="1:5">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="28" spans="1:5">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="3" customFormat="1" ht="45" spans="1:5">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="17"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" spans="1:5">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="3" customFormat="1" ht="28" spans="1:5">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="13" s="3" customFormat="1" ht="15" spans="1:5">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="45" spans="1:5">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
-    <row r="14" customFormat="1" ht="14"/>
+    <row r="15" customFormat="1" ht="14"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1" errorStyle="warning">
